--- a/LoginCreds.xlsx
+++ b/LoginCreds.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="2670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:G6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Login Id</t>
   </si>
@@ -34,6 +36,36 @@
   </si>
   <si>
     <t>prithviselenium@gmail.com</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>IE;FF</t>
+  </si>
+  <si>
+    <t>IE;FF;CE</t>
+  </si>
+  <si>
+    <t>prithviexcel@gmail.com</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Search Category</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tags </t>
+  </si>
+  <si>
+    <t>CompletSingleTransaction</t>
+  </si>
+  <si>
+    <t>LoginTestCase</t>
   </si>
 </sst>
 </file>
@@ -86,10 +118,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -405,47 +444,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A3" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E5:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="F5:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>